--- a/xlsx/彼得·德鲁克_intext.xlsx
+++ b/xlsx/彼得·德鲁克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>彼得·德鲁克</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%95%8F</t>
   </si>
   <si>
-    <t>顧問</t>
+    <t>顾问</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%8E%88</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>知識經濟</t>
+    <t>知识经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86</t>
@@ -101,15 +101,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奥地利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
   </si>
   <si>
-    <t>维也纳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
@@ -119,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>記者</t>
+    <t>记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%A6%8F%E5%A4%A7%E5%AD%A6</t>
@@ -137,19 +131,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約大學</t>
+    <t>纽约大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E8%87%AA%E7%94%B1%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>總統自由勳章</t>
+    <t>总统自由勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E8%92%99%E7%89%B9</t>
@@ -161,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>英特爾</t>
+    <t>英特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BF%AA%C2%B7%E8%91%9B%E6%B4%9B%E5%A4%AB</t>
@@ -179,13 +170,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>經濟學人</t>
+    <t>经济学人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -215,37 +206,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E9%A0%98</t>
   </si>
   <si>
-    <t>藍領</t>
+    <t>蓝领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>社群意識</t>
+    <t>社群意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%AE%A2%E5%B0%8E%E5%90%91</t>
   </si>
   <si>
-    <t>顧客導向</t>
+    <t>顾客导向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%82%E6%9E%9C%E9%AB%98%E6%A0%A1%E6%A3%92%E7%90%83%E5%A5%B3%E5%AD%90%E7%B6%93%E7%90%86%E8%AE%80%E4%BA%86%E5%BD%BC%E5%BE%97%C2%B7%E6%9D%9C%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>如果高校棒球女子經理讀了彼得·杜拉克</t>
+    <t>如果高校棒球女子经理读了彼得·杜拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%A9%E5%B4%8E%E5%A4%8F%E6%B5%B7</t>
@@ -257,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/NHK%E7%B6%9C%E5%90%88%E5%8F%B0</t>
   </si>
   <si>
-    <t>NHK綜合台</t>
+    <t>NHK综合台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_business_management</t>
@@ -311,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -329,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -353,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -407,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -419,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -521,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -539,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -557,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -653,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A%E5%88%9B%E4%B8%9A</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%9B%85%E8%83%A1%C2%B7%E9%AB%98%E5%BE%B7%E6%8B%89%E7%89%B9</t>
@@ -731,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -797,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -911,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1718,7 +1709,7 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1744,10 +1735,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1773,10 +1764,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1802,10 +1793,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1831,10 +1822,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1860,10 +1851,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1889,10 +1880,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1918,10 +1909,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
         <v>11</v>
@@ -1947,10 +1938,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1976,10 +1967,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2005,10 +1996,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2034,10 +2025,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2063,10 +2054,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2092,10 +2083,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2121,10 +2112,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2150,10 +2141,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2179,10 +2170,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2208,10 +2199,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2237,10 +2228,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2266,10 +2257,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2295,10 +2286,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2324,10 +2315,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -2353,10 +2344,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2382,10 +2373,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2411,10 +2402,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2440,10 +2431,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2469,10 +2460,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2498,10 +2489,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2527,10 +2518,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2556,10 +2547,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2585,10 +2576,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2614,10 +2605,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>9</v>
@@ -2643,10 +2634,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2672,10 +2663,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2701,10 +2692,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2730,10 +2721,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2759,10 +2750,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2788,10 +2779,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2817,10 +2808,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2846,10 +2837,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2875,10 +2866,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2904,10 +2895,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2933,10 +2924,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2962,10 +2953,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2991,10 +2982,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3020,10 +3011,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3049,10 +3040,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3078,10 +3069,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3107,10 +3098,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3136,10 +3127,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3165,10 +3156,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3194,10 +3185,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3223,10 +3214,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3252,10 +3243,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3281,10 +3272,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3310,10 +3301,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3339,10 +3330,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3368,10 +3359,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3397,10 +3388,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3426,10 +3417,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3455,10 +3446,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3484,10 +3475,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3513,10 +3504,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3542,10 +3533,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3571,10 +3562,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3600,10 +3591,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3629,10 +3620,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3658,10 +3649,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3687,10 +3678,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3716,10 +3707,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3745,10 +3736,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3774,10 +3765,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3803,10 +3794,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3832,10 +3823,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3861,10 +3852,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3890,10 +3881,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -3919,10 +3910,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3948,10 +3939,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -3977,10 +3968,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4006,10 +3997,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4035,10 +4026,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4064,10 +4055,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4093,10 +4084,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4122,10 +4113,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4151,10 +4142,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4180,10 +4171,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4209,10 +4200,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4238,10 +4229,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4267,10 +4258,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4296,10 +4287,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4325,10 +4316,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4354,10 +4345,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4383,10 +4374,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F107" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G107" t="n">
         <v>7</v>
@@ -4412,10 +4403,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4441,10 +4432,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4470,10 +4461,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4499,10 +4490,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F111" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4528,10 +4519,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4557,10 +4548,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4586,10 +4577,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4615,10 +4606,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4644,10 +4635,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -4673,10 +4664,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4702,10 +4693,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4731,10 +4722,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4760,10 +4751,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4789,10 +4780,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4818,10 +4809,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4847,10 +4838,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4876,10 +4867,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4905,10 +4896,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4934,10 +4925,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4963,10 +4954,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4992,10 +4983,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5021,10 +5012,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5050,10 +5041,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F130" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5079,10 +5070,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5108,10 +5099,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5137,10 +5128,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5166,10 +5157,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5195,10 +5186,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5224,10 +5215,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5253,10 +5244,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5282,10 +5273,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5311,10 +5302,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5340,10 +5331,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5369,10 +5360,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5398,10 +5389,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5427,10 +5418,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5456,10 +5447,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5485,10 +5476,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5514,10 +5505,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5543,10 +5534,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -5572,10 +5563,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5601,10 +5592,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5630,10 +5621,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5659,10 +5650,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5688,10 +5679,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5717,10 +5708,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5746,10 +5737,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5775,10 +5766,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5804,10 +5795,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5833,10 +5824,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5862,10 +5853,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
